--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H2">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I2">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J2">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N2">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O2">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P2">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q2">
-        <v>0.01440391865333334</v>
+        <v>0.004579300768</v>
       </c>
       <c r="R2">
-        <v>0.12963526788</v>
+        <v>0.041213706912</v>
       </c>
       <c r="S2">
-        <v>7.401846158743851E-05</v>
+        <v>2.549173904663819E-05</v>
       </c>
       <c r="T2">
-        <v>8.175739280829905E-05</v>
+        <v>2.749721277663732E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H3">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I3">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J3">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>65.97693</v>
       </c>
       <c r="O3">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P3">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q3">
-        <v>2.20156218486</v>
+        <v>0.59361643152</v>
       </c>
       <c r="R3">
-        <v>19.81405966374</v>
+        <v>5.342547883679999</v>
       </c>
       <c r="S3">
-        <v>0.01131332729199398</v>
+        <v>0.003304503445558439</v>
       </c>
       <c r="T3">
-        <v>0.01249618167607758</v>
+        <v>0.00356447373784154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H4">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I4">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J4">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N4">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O4">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P4">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q4">
-        <v>0.001553545014</v>
+        <v>0.001287455418666667</v>
       </c>
       <c r="R4">
-        <v>0.013981905126</v>
+        <v>0.011587098768</v>
       </c>
       <c r="S4">
-        <v>7.983314451481202E-06</v>
+        <v>7.166918975091654E-06</v>
       </c>
       <c r="T4">
-        <v>8.818002448630819E-06</v>
+        <v>7.730751348523786E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H5">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I5">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J5">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N5">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O5">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P5">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q5">
-        <v>0.388067015466</v>
+        <v>0.151928372344</v>
       </c>
       <c r="R5">
-        <v>2.328402092796</v>
+        <v>0.911570234064</v>
       </c>
       <c r="S5">
-        <v>0.001994188121228714</v>
+        <v>0.0008457444963295607</v>
       </c>
       <c r="T5">
-        <v>0.001468459066961648</v>
+        <v>0.0006081869980884599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>18.901559</v>
       </c>
       <c r="I6">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J6">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N6">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O6">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P6">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q6">
-        <v>0.9065607731044444</v>
+        <v>1.068908363528667</v>
       </c>
       <c r="R6">
-        <v>8.159046957939999</v>
+        <v>9.620175271758001</v>
       </c>
       <c r="S6">
-        <v>0.004658609603101388</v>
+        <v>0.005950326141111384</v>
       </c>
       <c r="T6">
-        <v>0.005145686185484187</v>
+        <v>0.00641844731319359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.901559</v>
       </c>
       <c r="I7">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J7">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>65.97693</v>
       </c>
       <c r="O7">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P7">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q7">
         <v>138.56298167043</v>
@@ -886,10 +886,10 @@
         <v>1247.06683503387</v>
       </c>
       <c r="S7">
-        <v>0.7120436447230414</v>
+        <v>0.7713429515155865</v>
       </c>
       <c r="T7">
-        <v>0.7864907039374907</v>
+        <v>0.8320256700721497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.901559</v>
       </c>
       <c r="I8">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J8">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N8">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O8">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P8">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q8">
-        <v>0.09777776470699999</v>
+        <v>0.3005200868874444</v>
       </c>
       <c r="R8">
-        <v>0.879999882363</v>
+        <v>2.704680781987</v>
       </c>
       <c r="S8">
-        <v>0.0005024576919139863</v>
+        <v>0.001672914713691889</v>
       </c>
       <c r="T8">
-        <v>0.0005549916872946007</v>
+        <v>0.001804525448632334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.901559</v>
       </c>
       <c r="I9">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J9">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N9">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O9">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P9">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q9">
-        <v>24.424348819533</v>
+        <v>35.46338536892517</v>
       </c>
       <c r="R9">
-        <v>146.546092917198</v>
+        <v>212.780312213551</v>
       </c>
       <c r="S9">
-        <v>0.1255111729250451</v>
+        <v>0.1974151538270411</v>
       </c>
       <c r="T9">
-        <v>0.09242258437143476</v>
+        <v>0.1419640687043311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H10">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I10">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J10">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N10">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O10">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P10">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q10">
-        <v>0.1528541873366667</v>
+        <v>0.019498758355</v>
       </c>
       <c r="R10">
-        <v>0.9171251240200001</v>
+        <v>0.11699255013</v>
       </c>
       <c r="S10">
-        <v>0.00078548289990793</v>
+        <v>0.0001085443575125127</v>
       </c>
       <c r="T10">
-        <v>0.0005784055546386636</v>
+        <v>7.805580437292207E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H11">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I11">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J11">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>65.97693</v>
       </c>
       <c r="O11">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P11">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q11">
-        <v>23.362947732285</v>
+        <v>2.527631169075</v>
       </c>
       <c r="R11">
-        <v>140.17768639371</v>
+        <v>15.16578701445</v>
       </c>
       <c r="S11">
-        <v>0.1200568741681474</v>
+        <v>0.01407064471905177</v>
       </c>
       <c r="T11">
-        <v>0.0884062057869765</v>
+        <v>0.01011840243712885</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H12">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I12">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J12">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N12">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O12">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P12">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q12">
-        <v>0.0164861983965</v>
+        <v>0.005482012074166666</v>
       </c>
       <c r="R12">
-        <v>0.09891719037900001</v>
+        <v>0.032892072445</v>
       </c>
       <c r="S12">
-        <v>8.471882354402423E-05</v>
+        <v>3.051689074928577E-05</v>
       </c>
       <c r="T12">
-        <v>6.238434741998856E-05</v>
+        <v>2.194513385112157E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H13">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I13">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J13">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N13">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O13">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P13">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q13">
-        <v>4.1181618494835</v>
+        <v>0.64691418399625</v>
       </c>
       <c r="R13">
-        <v>16.472647397934</v>
+        <v>2.587656735985</v>
       </c>
       <c r="S13">
-        <v>0.02116229701118926</v>
+        <v>0.0036011977372702</v>
       </c>
       <c r="T13">
-        <v>0.01038884499511473</v>
+        <v>0.001726448630651104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H14">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I14">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J14">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N14">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O14">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P14">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q14">
-        <v>0.001941990377777778</v>
+        <v>0.00177882219</v>
       </c>
       <c r="R14">
-        <v>0.0174779134</v>
+        <v>0.01600939971</v>
       </c>
       <c r="S14">
-        <v>9.979446818623541E-06</v>
+        <v>9.902225989330225E-06</v>
       </c>
       <c r="T14">
-        <v>1.102283857380519E-05</v>
+        <v>1.068124910947845E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H15">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I15">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J15">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>65.97693</v>
       </c>
       <c r="O15">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P15">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q15">
-        <v>0.2968228773</v>
+        <v>0.23058937035</v>
       </c>
       <c r="R15">
-        <v>2.6714058957</v>
+        <v>2.07530433315</v>
       </c>
       <c r="S15">
-        <v>0.001525305249944512</v>
+        <v>0.001283629172594852</v>
       </c>
       <c r="T15">
-        <v>0.001684782117836364</v>
+        <v>0.001384614224261579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H16">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I16">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J16">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N16">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O16">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P16">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q16">
-        <v>0.00020945477</v>
+        <v>0.000500110035</v>
       </c>
       <c r="R16">
-        <v>0.00188509293</v>
+        <v>0.004500990315</v>
       </c>
       <c r="S16">
-        <v>1.076340419623445E-06</v>
+        <v>2.783978417821428E-06</v>
       </c>
       <c r="T16">
-        <v>1.188876188390512E-06</v>
+        <v>3.002998217593061E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H17">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I17">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J17">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N17">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O17">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P17">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q17">
-        <v>0.05232065162999999</v>
+        <v>0.05901633758249999</v>
       </c>
       <c r="R17">
-        <v>0.31392390978</v>
+        <v>0.354098025495</v>
       </c>
       <c r="S17">
-        <v>0.000268863927665177</v>
+        <v>0.0003285281210734827</v>
       </c>
       <c r="T17">
-        <v>0.0001979831632512108</v>
+        <v>0.0002362492840455506</v>
       </c>
     </row>
   </sheetData>
